--- a/1_Data/GIS_data/Nepal-GIS_files/Hydrology_stations-Nepal/Hydrology_stations-Nepal.xlsx
+++ b/1_Data/GIS_data/Nepal-GIS_files/Hydrology_stations-Nepal/Hydrology_stations-Nepal.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Masters\Thesis\GIS_data\Nepal-GIS_files\Hydrology_stations-Nepal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Masters\Thesis\1_Data\GIS_data\Nepal-GIS_files\Hydrology_stations-Nepal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD278D33-3D35-486B-81E8-22AAE719D15E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0169C33-A6A5-42D8-A30D-009EB1FC6B57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="1" xr2:uid="{A6A37F8B-A6C8-4E38-BB4E-5F2C2B17315B}"/>
   </bookViews>
@@ -673,17 +673,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -745,7 +746,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{971D92DF-89F1-4C1A-8ABC-431DFCF64439}" name="Table2" displayName="Table2" ref="A1:H96" totalsRowShown="0">
   <autoFilter ref="A1:H96" xr:uid="{B80F9B99-63FF-453E-B7B8-359B2DC4C15E}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H96">
-    <sortCondition ref="F1:F96"/>
+    <sortCondition ref="A1:A96"/>
   </sortState>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{C489D0FF-27EA-4703-B890-344C4663069F}" name="Station "/>
@@ -1062,17 +1063,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.81640625" customWidth="1"/>
+    <col min="2" max="2" width="8.81640625" customWidth="1"/>
+    <col min="3" max="3" width="12.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.28515625" customWidth="1"/>
-    <col min="17" max="17" width="8.85546875" customWidth="1"/>
+    <col min="14" max="14" width="10.26953125" customWidth="1"/>
+    <col min="17" max="17" width="8.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>173</v>
       </c>
@@ -1125,7 +1126,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1135,7 +1136,7 @@
       <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E2">
@@ -1180,7 +1181,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1190,7 +1191,7 @@
       <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E3">
@@ -1235,7 +1236,7 @@
         <v>1965</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1245,7 +1246,7 @@
       <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E4">
@@ -1290,7 +1291,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1300,7 +1301,7 @@
       <c r="C5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E5">
@@ -1345,7 +1346,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1355,7 +1356,7 @@
       <c r="C6" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E6">
@@ -1400,7 +1401,7 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1410,7 +1411,7 @@
       <c r="C7" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E7">
@@ -1455,7 +1456,7 @@
         <v>1973</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1465,7 +1466,7 @@
       <c r="C8" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E8">
@@ -1510,62 +1511,62 @@
         <v>1967</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="2">
         <v>240</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="2">
         <v>2014</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="2">
         <v>28</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="2">
         <v>57</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="2">
         <v>10</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="3">
         <f>(Table1[[#This Row],[lat-D]]*3600+Table1[[#This Row],[lat-M]]*60+Table1[[#This Row],[lat-S]])/3600</f>
         <v>28.952777777777779</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="2">
         <v>81</v>
       </c>
-      <c r="L9" s="5">
+      <c r="L9" s="2">
         <v>26</v>
       </c>
-      <c r="M9" s="5">
+      <c r="M9" s="2">
         <v>30</v>
       </c>
-      <c r="N9" s="6">
+      <c r="N9" s="3">
         <f>(Table1[[#This Row],[lon-D]]*3600+Table1[[#This Row],[lon-M]]*60+Table1[[#This Row],[lon-S]])/3600</f>
         <v>81.441666666666663</v>
       </c>
-      <c r="O9" s="5">
+      <c r="O9" s="2">
         <v>629</v>
       </c>
-      <c r="P9" s="5">
+      <c r="P9" s="2">
         <v>19260</v>
       </c>
-      <c r="Q9" s="5">
+      <c r="Q9" s="2">
         <v>1962</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1575,7 +1576,7 @@
       <c r="C10" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E10">
@@ -1620,7 +1621,7 @@
         <v>1963</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1630,7 +1631,7 @@
       <c r="C11" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E11">
@@ -1675,7 +1676,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1685,7 +1686,7 @@
       <c r="C12" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E12">
@@ -1730,7 +1731,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1740,7 +1741,7 @@
       <c r="C13" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E13">
@@ -1785,7 +1786,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1795,7 +1796,7 @@
       <c r="C14" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E14">
@@ -1840,7 +1841,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1850,7 +1851,7 @@
       <c r="C15" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E15">
@@ -1895,7 +1896,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1905,7 +1906,7 @@
       <c r="C16" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E16">
@@ -1950,8 +1951,8 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17">
@@ -1960,7 +1961,7 @@
       <c r="C17" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E17">
@@ -2005,7 +2006,7 @@
         <v>1963</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2015,7 +2016,7 @@
       <c r="C18" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E18">
@@ -2060,7 +2061,7 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2070,7 +2071,7 @@
       <c r="C19" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E19">
@@ -2115,7 +2116,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2125,7 +2126,7 @@
       <c r="C20" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E20">
@@ -2170,7 +2171,7 @@
         <v>1963</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2180,7 +2181,7 @@
       <c r="C21" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E21">
@@ -2225,7 +2226,7 @@
         <v>1962</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2235,7 +2236,7 @@
       <c r="C22" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E22">
@@ -2280,7 +2281,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2290,7 +2291,7 @@
       <c r="C23" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E23">
@@ -2335,7 +2336,7 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2345,7 +2346,7 @@
       <c r="C24" t="s">
         <v>41</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E24">
@@ -2390,7 +2391,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2400,7 +2401,7 @@
       <c r="C25" t="s">
         <v>41</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E25">
@@ -2445,7 +2446,7 @@
         <v>1967</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2455,7 +2456,7 @@
       <c r="C26" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="2" t="s">
         <v>45</v>
       </c>
       <c r="E26">
@@ -2500,7 +2501,7 @@
         <v>1965</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2510,7 +2511,7 @@
       <c r="C27" t="s">
         <v>46</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="2" t="s">
         <v>47</v>
       </c>
       <c r="E27">
@@ -2555,7 +2556,7 @@
         <v>1971</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2565,7 +2566,7 @@
       <c r="C28" t="s">
         <v>48</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="2" t="s">
         <v>49</v>
       </c>
       <c r="E28">
@@ -2610,8 +2611,8 @@
         <v>1965</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A29" s="2">
         <v>28</v>
       </c>
       <c r="B29">
@@ -2620,7 +2621,7 @@
       <c r="C29" t="s">
         <v>50</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E29">
@@ -2665,7 +2666,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2675,7 +2676,7 @@
       <c r="C30" t="s">
         <v>50</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="2" t="s">
         <v>52</v>
       </c>
       <c r="E30">
@@ -2720,7 +2721,7 @@
         <v>1964</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2730,7 +2731,7 @@
       <c r="C31" t="s">
         <v>53</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E31">
@@ -2775,7 +2776,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2785,7 +2786,7 @@
       <c r="C32" t="s">
         <v>55</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="2" t="s">
         <v>56</v>
       </c>
       <c r="E32">
@@ -2830,7 +2831,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2840,7 +2841,7 @@
       <c r="C33" t="s">
         <v>50</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="2" t="s">
         <v>57</v>
       </c>
       <c r="E33">
@@ -2885,7 +2886,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2895,7 +2896,7 @@
       <c r="C34" t="s">
         <v>58</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="2" t="s">
         <v>59</v>
       </c>
       <c r="E34">
@@ -2940,7 +2941,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2950,7 +2951,7 @@
       <c r="C35" t="s">
         <v>60</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="2" t="s">
         <v>61</v>
       </c>
       <c r="E35">
@@ -2995,7 +2996,7 @@
         <v>1964</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3005,7 +3006,7 @@
       <c r="C36" t="s">
         <v>62</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D36" s="2" t="s">
         <v>63</v>
       </c>
       <c r="E36">
@@ -3050,62 +3051,62 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" s="5">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A37" s="2">
         <v>36</v>
       </c>
-      <c r="B37" s="5">
+      <c r="B37" s="2">
         <v>406.4</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D37" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E37" s="5">
+      <c r="E37" s="2">
         <v>2006</v>
       </c>
-      <c r="F37" s="5" t="s">
+      <c r="F37" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G37" s="5">
+      <c r="G37" s="2">
         <v>28</v>
       </c>
-      <c r="H37" s="5">
+      <c r="H37" s="2">
         <v>31</v>
       </c>
-      <c r="I37" s="5">
-        <v>0</v>
-      </c>
-      <c r="J37" s="6">
+      <c r="I37" s="2">
+        <v>0</v>
+      </c>
+      <c r="J37" s="3">
         <f>(Table1[[#This Row],[lat-D]]*3600+Table1[[#This Row],[lat-M]]*60+Table1[[#This Row],[lat-S]])/3600</f>
         <v>28.516666666666666</v>
       </c>
-      <c r="K37" s="5">
+      <c r="K37" s="2">
         <v>83</v>
       </c>
-      <c r="L37" s="5">
+      <c r="L37" s="2">
         <v>57</v>
       </c>
-      <c r="M37" s="5">
-        <v>0</v>
-      </c>
-      <c r="N37" s="6">
+      <c r="M37" s="2">
+        <v>0</v>
+      </c>
+      <c r="N37" s="3">
         <f>(Table1[[#This Row],[lon-D]]*3600+Table1[[#This Row],[lon-M]]*60+Table1[[#This Row],[lon-S]])/3600</f>
         <v>83.95</v>
       </c>
-      <c r="O37" s="5">
+      <c r="O37" s="2">
         <v>3549</v>
       </c>
-      <c r="P37" s="5">
+      <c r="P37" s="2">
         <v>158.19999999999999</v>
       </c>
-      <c r="Q37" s="5">
+      <c r="Q37" s="2">
         <v>1999</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3115,7 +3116,7 @@
       <c r="C38" t="s">
         <v>64</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D38" s="2" t="s">
         <v>66</v>
       </c>
       <c r="E38">
@@ -3160,7 +3161,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3170,7 +3171,7 @@
       <c r="C39" t="s">
         <v>67</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D39" s="2" t="s">
         <v>68</v>
       </c>
       <c r="E39">
@@ -3215,62 +3216,62 @@
         <v>1964</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" s="7">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A40" s="4">
         <v>39</v>
       </c>
-      <c r="B40" s="7">
+      <c r="B40" s="4">
         <v>415</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E40" s="7">
+      <c r="E40" s="4">
         <v>1991</v>
       </c>
-      <c r="F40" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="G40" s="7">
+      <c r="F40" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G40" s="4">
         <v>27</v>
       </c>
-      <c r="H40" s="7">
+      <c r="H40" s="4">
         <v>58</v>
       </c>
-      <c r="I40" s="7">
+      <c r="I40" s="4">
         <v>28</v>
       </c>
-      <c r="J40" s="8">
+      <c r="J40" s="5">
         <f>(Table1[[#This Row],[lat-D]]*3600+Table1[[#This Row],[lat-M]]*60+Table1[[#This Row],[lat-S]])/3600</f>
         <v>27.974444444444444</v>
       </c>
-      <c r="K40" s="7">
+      <c r="K40" s="4">
         <v>83</v>
       </c>
-      <c r="L40" s="7">
+      <c r="L40" s="4">
         <v>35</v>
       </c>
-      <c r="M40" s="7">
+      <c r="M40" s="4">
         <v>58</v>
       </c>
-      <c r="N40" s="8">
+      <c r="N40" s="5">
         <f>(Table1[[#This Row],[lon-D]]*3600+Table1[[#This Row],[lon-M]]*60+Table1[[#This Row],[lon-S]])/3600</f>
         <v>83.599444444444444</v>
       </c>
-      <c r="O40" s="7">
+      <c r="O40" s="4">
         <v>543</v>
       </c>
-      <c r="P40" s="7">
+      <c r="P40" s="4">
         <v>476</v>
       </c>
-      <c r="Q40" s="7">
+      <c r="Q40" s="4">
         <v>1964</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3280,7 +3281,7 @@
       <c r="C41" t="s">
         <v>69</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D41" s="2" t="s">
         <v>71</v>
       </c>
       <c r="E41">
@@ -3325,62 +3326,62 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A42" s="7">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A42" s="4">
         <v>41</v>
       </c>
-      <c r="B42" s="7">
+      <c r="B42" s="4">
         <v>419.1</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D42" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E42" s="7">
+      <c r="E42" s="4">
         <v>2015</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="F42" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G42" s="7">
+      <c r="G42" s="4">
         <v>27</v>
       </c>
-      <c r="H42" s="7">
+      <c r="H42" s="4">
         <v>53</v>
       </c>
-      <c r="I42" s="7">
+      <c r="I42" s="4">
         <v>5</v>
       </c>
-      <c r="J42" s="8">
+      <c r="J42" s="5">
         <f>(Table1[[#This Row],[lat-D]]*3600+Table1[[#This Row],[lat-M]]*60+Table1[[#This Row],[lat-S]])/3600</f>
         <v>27.884722222222223</v>
       </c>
-      <c r="K42" s="7">
+      <c r="K42" s="4">
         <v>83</v>
       </c>
-      <c r="L42" s="7">
+      <c r="L42" s="4">
         <v>47</v>
       </c>
-      <c r="M42" s="7">
+      <c r="M42" s="4">
         <v>42</v>
       </c>
-      <c r="N42" s="8">
+      <c r="N42" s="5">
         <f>(Table1[[#This Row],[lon-D]]*3600+Table1[[#This Row],[lon-M]]*60+Table1[[#This Row],[lon-S]])/3600</f>
         <v>83.795000000000002</v>
       </c>
-      <c r="O42" s="7">
+      <c r="O42" s="4">
         <v>351</v>
       </c>
-      <c r="P42" s="7">
+      <c r="P42" s="4">
         <v>10020</v>
       </c>
-      <c r="Q42" s="7">
+      <c r="Q42" s="4">
         <v>1996</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3390,7 +3391,7 @@
       <c r="C43" t="s">
         <v>67</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D43" s="2" t="s">
         <v>68</v>
       </c>
       <c r="E43">
@@ -3435,7 +3436,7 @@
         <v>1964</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3445,7 +3446,7 @@
       <c r="C44" t="s">
         <v>74</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="D44" s="2" t="s">
         <v>75</v>
       </c>
       <c r="E44">
@@ -3490,7 +3491,7 @@
         <v>1974</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3500,7 +3501,7 @@
       <c r="C45" t="s">
         <v>29</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="D45" s="2" t="s">
         <v>76</v>
       </c>
       <c r="E45">
@@ -3545,7 +3546,7 @@
         <v>1964</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3555,7 +3556,7 @@
       <c r="C46" t="s">
         <v>29</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="D46" s="2" t="s">
         <v>68</v>
       </c>
       <c r="E46">
@@ -3600,7 +3601,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3610,7 +3611,7 @@
       <c r="C47" t="s">
         <v>77</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="D47" s="2" t="s">
         <v>78</v>
       </c>
       <c r="E47">
@@ -3655,7 +3656,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3710,7 +3711,7 @@
         <v>1983</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3765,7 +3766,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3820,7 +3821,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3875,7 +3876,7 @@
         <v>1974</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3930,7 +3931,7 @@
         <v>1964</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3985,7 +3986,7 @@
         <v>1964</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>53</v>
       </c>
@@ -4040,7 +4041,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>54</v>
       </c>
@@ -4095,7 +4096,7 @@
         <v>1971</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>55</v>
       </c>
@@ -4150,7 +4151,7 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>56</v>
       </c>
@@ -4205,7 +4206,7 @@
         <v>1969</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>57</v>
       </c>
@@ -4260,7 +4261,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>58</v>
       </c>
@@ -4315,7 +4316,7 @@
         <v>1963</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>59</v>
       </c>
@@ -4370,7 +4371,7 @@
         <v>1963</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>60</v>
       </c>
@@ -4425,7 +4426,7 @@
         <v>1964</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>61</v>
       </c>
@@ -4480,7 +4481,7 @@
         <v>1964</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>62</v>
       </c>
@@ -4535,7 +4536,7 @@
         <v>1963</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>63</v>
       </c>
@@ -4590,7 +4591,7 @@
         <v>1991</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>64</v>
       </c>
@@ -4645,7 +4646,7 @@
         <v>1963</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>65</v>
       </c>
@@ -4700,7 +4701,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>66</v>
       </c>
@@ -4755,7 +4756,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>67</v>
       </c>
@@ -4810,7 +4811,7 @@
         <v>1963</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>68</v>
       </c>
@@ -4865,7 +4866,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>69</v>
       </c>
@@ -4920,7 +4921,7 @@
         <v>1979</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>70</v>
       </c>
@@ -4975,7 +4976,7 @@
         <v>1965</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>71</v>
       </c>
@@ -5030,7 +5031,7 @@
         <v>1985</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>72</v>
       </c>
@@ -5085,7 +5086,7 @@
         <v>1974</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>73</v>
       </c>
@@ -5140,7 +5141,7 @@
         <v>1974</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>74</v>
       </c>
@@ -5195,7 +5196,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>75</v>
       </c>
@@ -5250,7 +5251,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>76</v>
       </c>
@@ -5305,7 +5306,7 @@
         <v>1965</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>77</v>
       </c>
@@ -5360,7 +5361,7 @@
         <v>1964</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>78</v>
       </c>
@@ -5415,7 +5416,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>79</v>
       </c>
@@ -5470,7 +5471,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>80</v>
       </c>
@@ -5525,7 +5526,7 @@
         <v>1964</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>81</v>
       </c>
@@ -5580,7 +5581,7 @@
         <v>1964</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>82</v>
       </c>
@@ -5635,7 +5636,7 @@
         <v>1971</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>83</v>
       </c>
@@ -5690,7 +5691,7 @@
         <v>1964</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>84</v>
       </c>
@@ -5745,7 +5746,7 @@
         <v>1968</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>85</v>
       </c>
@@ -5800,7 +5801,7 @@
         <v>1964</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>86</v>
       </c>
@@ -5855,7 +5856,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>87</v>
       </c>
@@ -5910,7 +5911,7 @@
         <v>1964</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>88</v>
       </c>
@@ -5965,7 +5966,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>89</v>
       </c>
@@ -6020,7 +6021,7 @@
         <v>1991</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>90</v>
       </c>
@@ -6075,7 +6076,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>91</v>
       </c>
@@ -6130,7 +6131,7 @@
         <v>1965</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>92</v>
       </c>
@@ -6185,7 +6186,7 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>93</v>
       </c>
@@ -6240,7 +6241,7 @@
         <v>1983</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>94</v>
       </c>
@@ -6308,20 +6309,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BE859AE-3379-4702-B4DA-F0E63CC43559}">
   <dimension ref="A1:H96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:H39"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="H68" sqref="H68:H96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="9.81640625" customWidth="1"/>
+    <col min="2" max="2" width="15.453125" customWidth="1"/>
+    <col min="3" max="3" width="13.453125" customWidth="1"/>
+    <col min="6" max="6" width="6.54296875" customWidth="1"/>
+    <col min="7" max="7" width="8.08984375" customWidth="1"/>
+    <col min="8" max="8" width="10.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>176</v>
       </c>
@@ -6347,7 +6349,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>115</v>
       </c>
@@ -6373,905 +6375,905 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3">
+        <v>120</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>29.672222222222221</v>
+      </c>
+      <c r="E3">
+        <v>80.558333333333337</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4">
         <v>125</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="D3">
+      <c r="D4">
         <v>29.638333333333332</v>
       </c>
-      <c r="E3">
+      <c r="E4">
         <v>80.513888888888886</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3">
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4">
         <v>2011</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5">
         <v>170</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>8</v>
       </c>
-      <c r="D4">
+      <c r="D5">
         <v>29.458333333333332</v>
       </c>
-      <c r="E4">
+      <c r="E5">
         <v>80.55638888888889</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5">
         <v>1987</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6">
         <v>215</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>10</v>
       </c>
-      <c r="D5">
+      <c r="D6">
         <v>29.158888888888889</v>
       </c>
-      <c r="E5">
+      <c r="E6">
         <v>81.591111111111104</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H5">
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6">
         <v>2006</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7">
         <v>220</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>12</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <v>29.107222222222223</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>81.680277777777775</v>
       </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H6">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>225</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7">
-        <v>29.2</v>
-      </c>
-      <c r="E7">
-        <v>81.916666666666671</v>
-      </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="H7">
         <v>2015</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D8">
-        <v>28.961111111111112</v>
+        <v>29.2</v>
       </c>
       <c r="E8">
-        <v>81.11944444444444</v>
+        <v>81.916666666666671</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="H8">
         <v>2015</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9">
+        <v>240</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9">
+        <v>28.952777777777779</v>
+      </c>
+      <c r="E9">
+        <v>81.441666666666663</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="2">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>250</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10">
+        <v>28.961111111111112</v>
+      </c>
+      <c r="E10">
+        <v>81.11944444444444</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11">
         <v>251.6</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B11" t="s">
         <v>19</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C11" t="s">
         <v>20</v>
       </c>
-      <c r="D9">
+      <c r="D11">
         <v>29.497777777777777</v>
       </c>
-      <c r="E9">
+      <c r="E11">
         <v>81.131944444444443</v>
       </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9" t="s">
-        <v>2</v>
-      </c>
-      <c r="H9">
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11">
         <v>2014</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12">
         <v>253.9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B12" t="s">
         <v>21</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C12" t="s">
         <v>22</v>
       </c>
-      <c r="D10">
+      <c r="D12">
         <v>29.163611111111113</v>
       </c>
-      <c r="E10">
+      <c r="E12">
         <v>81.318888888888893</v>
       </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10" t="s">
-        <v>2</v>
-      </c>
-      <c r="H10">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>256.5</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11">
-        <v>29.163055555555555</v>
-      </c>
-      <c r="E11">
-        <v>81.216388888888886</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H11">
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>258</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12">
-        <v>29.371111111111112</v>
-      </c>
-      <c r="E12">
-        <v>80.784999999999997</v>
-      </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="H12">
         <v>2006</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13">
+        <v>256.5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13">
+        <v>29.163055555555555</v>
+      </c>
+      <c r="E13">
+        <v>81.216388888888886</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13" t="s">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>258</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14">
+        <v>29.371111111111112</v>
+      </c>
+      <c r="E14">
+        <v>80.784999999999997</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15">
         <v>259.10000000000002</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B15" t="s">
         <v>27</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C15" t="s">
         <v>28</v>
       </c>
-      <c r="D13">
+      <c r="D15">
         <v>29.366666666666667</v>
       </c>
-      <c r="E13">
+      <c r="E15">
         <v>80.833333333333329</v>
       </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15" t="s">
         <v>17</v>
       </c>
-      <c r="H13">
+      <c r="H15">
         <v>2006</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16">
         <v>259.2</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B16" t="s">
         <v>29</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C16" t="s">
         <v>30</v>
       </c>
-      <c r="D14">
+      <c r="D16">
         <v>29.3</v>
       </c>
-      <c r="E14">
+      <c r="E16">
         <v>80.775000000000006</v>
       </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14" t="s">
-        <v>2</v>
-      </c>
-      <c r="H14">
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16" t="s">
+        <v>2</v>
+      </c>
+      <c r="H16">
         <v>2014</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" s="7">
+        <v>259.5</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="D17" s="7">
+        <v>29.238199999999999</v>
+      </c>
+      <c r="E17" s="7">
+        <v>80.959289999999996</v>
+      </c>
+      <c r="F17" s="7">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
+        <v>2</v>
+      </c>
+      <c r="H17">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18">
         <v>260</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B18" t="s">
         <v>29</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C18" t="s">
         <v>31</v>
       </c>
-      <c r="D15">
+      <c r="D18">
         <v>28.977777777777778</v>
       </c>
-      <c r="E15">
+      <c r="E18">
         <v>81.144444444444446</v>
       </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15" t="s">
-        <v>2</v>
-      </c>
-      <c r="H15">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18" t="s">
+        <v>2</v>
+      </c>
+      <c r="H18">
         <v>2015</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19">
         <v>265</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B19" t="s">
         <v>32</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C19" t="s">
         <v>33</v>
       </c>
-      <c r="D16">
+      <c r="D19">
         <v>28.713055555555556</v>
       </c>
-      <c r="E16">
+      <c r="E19">
         <v>82.283333333333331</v>
       </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16" t="s">
-        <v>2</v>
-      </c>
-      <c r="H16">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>270</v>
-      </c>
-      <c r="B17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17">
-        <v>28.755555555555556</v>
-      </c>
-      <c r="E17">
-        <v>81.349999999999994</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17" t="s">
-        <v>15</v>
-      </c>
-      <c r="H17">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>283.3</v>
-      </c>
-      <c r="B18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18">
-        <v>28.511388888888888</v>
-      </c>
-      <c r="E18">
-        <v>80.94</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18" t="s">
-        <v>15</v>
-      </c>
-      <c r="H18">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>286</v>
-      </c>
-      <c r="B19" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19">
-        <v>28.299444444444443</v>
-      </c>
-      <c r="E19">
-        <v>82.025000000000006</v>
-      </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="H19">
         <v>2015</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>289.95</v>
+        <v>269.5</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D20">
-        <v>28.351111111111113</v>
+        <v>28.517222222222223</v>
       </c>
       <c r="E20">
-        <v>81.720555555555549</v>
+        <v>81.656944444444449</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="s">
         <v>2</v>
       </c>
       <c r="H20">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C21" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D21">
-        <v>28.422222222222221</v>
+        <v>28.755555555555556</v>
       </c>
       <c r="E21">
-        <v>81.36944444444444</v>
+        <v>81.349999999999994</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="H21">
-        <v>1987</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>339.5</v>
+        <v>280</v>
       </c>
       <c r="B22" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D22">
-        <v>28.05</v>
+        <v>28.644444444444446</v>
       </c>
       <c r="E22">
-        <v>82.827777777777783</v>
+        <v>81.291666666666671</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="s">
+        <v>2</v>
+      </c>
+      <c r="H22">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>283.3</v>
+      </c>
+      <c r="B23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23">
+        <v>28.511388888888888</v>
+      </c>
+      <c r="E23">
+        <v>80.94</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23" t="s">
         <v>15</v>
       </c>
-      <c r="H22">
-        <v>1995</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>340</v>
-      </c>
-      <c r="B23" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D23">
-        <v>28.036111111111111</v>
-      </c>
-      <c r="E23">
-        <v>82.88333333333334</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23" t="s">
-        <v>2</v>
-      </c>
       <c r="H23">
-        <v>1970</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24">
-        <v>350</v>
+        <v>286</v>
       </c>
       <c r="B24" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C24" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="D24">
-        <v>27.853333333333332</v>
+        <v>28.299444444444443</v>
       </c>
       <c r="E24">
-        <v>82.792777777777772</v>
+        <v>82.025000000000006</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="H24">
         <v>2015</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25">
+        <v>289.95</v>
+      </c>
+      <c r="B25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25">
+        <v>28.351111111111113</v>
+      </c>
+      <c r="E25">
+        <v>81.720555555555549</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25" t="s">
+        <v>2</v>
+      </c>
+      <c r="H25">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>290</v>
+      </c>
+      <c r="B26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26">
+        <v>28.422222222222221</v>
+      </c>
+      <c r="E26">
+        <v>81.36944444444444</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26" t="s">
+        <v>2</v>
+      </c>
+      <c r="H26">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>330</v>
+      </c>
+      <c r="B27" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27">
+        <v>28.072222222222223</v>
+      </c>
+      <c r="E27">
+        <v>82.8</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>339.5</v>
+      </c>
+      <c r="B28" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28">
+        <v>28.05</v>
+      </c>
+      <c r="E28">
+        <v>82.827777777777783</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>340</v>
+      </c>
+      <c r="B29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29">
+        <v>28.036111111111111</v>
+      </c>
+      <c r="E29">
+        <v>82.88333333333334</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29" t="s">
+        <v>2</v>
+      </c>
+      <c r="H29">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>350</v>
+      </c>
+      <c r="B30" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30">
+        <v>27.853333333333332</v>
+      </c>
+      <c r="E30">
+        <v>82.792777777777772</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30" t="s">
+        <v>2</v>
+      </c>
+      <c r="H30">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>360</v>
+      </c>
+      <c r="B31" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31">
+        <v>27.947222222222223</v>
+      </c>
+      <c r="E31">
+        <v>82.224999999999994</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" t="s">
+        <v>2</v>
+      </c>
+      <c r="H31">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A32">
         <v>363</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B32" t="s">
         <v>53</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C32" t="s">
         <v>54</v>
       </c>
-      <c r="D25">
+      <c r="D32">
         <v>28.156111111111112</v>
       </c>
-      <c r="E25">
+      <c r="E32">
         <v>81.753611111111113</v>
       </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25" t="s">
-        <v>2</v>
-      </c>
-      <c r="H25">
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32" t="s">
+        <v>2</v>
+      </c>
+      <c r="H32">
         <v>2011</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A33">
         <v>364</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B33" t="s">
         <v>55</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C33" t="s">
         <v>56</v>
       </c>
-      <c r="D26">
+      <c r="D33">
         <v>28.204166666666666</v>
       </c>
-      <c r="E26">
+      <c r="E33">
         <v>81.695555555555558</v>
       </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26" t="s">
-        <v>2</v>
-      </c>
-      <c r="H26">
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33" t="s">
+        <v>2</v>
+      </c>
+      <c r="H33">
         <v>2006</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>375</v>
+      </c>
+      <c r="B34" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" t="s">
+        <v>57</v>
+      </c>
+      <c r="D34">
+        <v>28.000555555555554</v>
+      </c>
+      <c r="E34">
+        <v>82.11611111111111</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34" t="s">
+        <v>2</v>
+      </c>
+      <c r="H34">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A35">
         <v>387.4</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B35" t="s">
         <v>58</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C35" t="s">
         <v>59</v>
       </c>
-      <c r="D27">
+      <c r="D35">
         <v>27.794444444444444</v>
       </c>
-      <c r="E27">
+      <c r="E35">
         <v>83.534166666666664</v>
       </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27" t="s">
-        <v>2</v>
-      </c>
-      <c r="H27">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35" t="s">
+        <v>2</v>
+      </c>
+      <c r="H35">
         <v>2014</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A36">
         <v>390</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B36" t="s">
         <v>60</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C36" t="s">
         <v>61</v>
       </c>
-      <c r="D28">
+      <c r="D36">
         <v>27.702777777777779</v>
       </c>
-      <c r="E28">
+      <c r="E36">
         <v>83.463888888888889</v>
       </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28" t="s">
-        <v>2</v>
-      </c>
-      <c r="H28">
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36" t="s">
+        <v>2</v>
+      </c>
+      <c r="H36">
         <v>1969</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A37">
         <v>404.7</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B37" t="s">
         <v>62</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C37" t="s">
         <v>63</v>
       </c>
-      <c r="D29">
+      <c r="D37">
         <v>28.352777777777778</v>
       </c>
-      <c r="E29">
+      <c r="E37">
         <v>83.521111111111111</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29" t="s">
-        <v>2</v>
-      </c>
-      <c r="H29">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>406.4</v>
-      </c>
-      <c r="B30" t="s">
-        <v>64</v>
-      </c>
-      <c r="C30" t="s">
-        <v>65</v>
-      </c>
-      <c r="D30">
-        <v>28.516666666666666</v>
-      </c>
-      <c r="E30">
-        <v>83.95</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H30" s="5">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>406.5</v>
-      </c>
-      <c r="B31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C31" t="s">
-        <v>66</v>
-      </c>
-      <c r="D31">
-        <v>28.254166666666666</v>
-      </c>
-      <c r="E31">
-        <v>83.724166666666662</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="G31" t="s">
-        <v>15</v>
-      </c>
-      <c r="H31">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>410</v>
-      </c>
-      <c r="B32" t="s">
-        <v>67</v>
-      </c>
-      <c r="C32" t="s">
-        <v>68</v>
-      </c>
-      <c r="D32">
-        <v>28.003888888888888</v>
-      </c>
-      <c r="E32">
-        <v>83.608611111111117</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32" t="s">
-        <v>2</v>
-      </c>
-      <c r="H32">
-        <v>1995</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>415</v>
-      </c>
-      <c r="B33" t="s">
-        <v>69</v>
-      </c>
-      <c r="C33" t="s">
-        <v>70</v>
-      </c>
-      <c r="D33">
-        <v>27.974444444444444</v>
-      </c>
-      <c r="E33">
-        <v>83.599444444444444</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="H33" s="7">
-        <v>1991</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="9">
-        <v>415.1</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D34" s="9">
-        <v>27.974166666666665</v>
-      </c>
-      <c r="E34" s="9">
-        <v>83.573888888888888</v>
-      </c>
-      <c r="F34" s="9">
-        <v>0</v>
-      </c>
-      <c r="G34" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="H34" s="9">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>428</v>
-      </c>
-      <c r="B35" t="s">
-        <v>74</v>
-      </c>
-      <c r="C35" t="s">
-        <v>75</v>
-      </c>
-      <c r="D35">
-        <v>28.300555555555555</v>
-      </c>
-      <c r="E35">
-        <v>83.918333333333337</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35" t="s">
-        <v>2</v>
-      </c>
-      <c r="H35">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>430</v>
-      </c>
-      <c r="B36" t="s">
-        <v>29</v>
-      </c>
-      <c r="C36" t="s">
-        <v>76</v>
-      </c>
-      <c r="D36">
-        <v>28.233333333333334</v>
-      </c>
-      <c r="E36">
-        <v>84</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="G36" t="s">
-        <v>2</v>
-      </c>
-      <c r="H36">
-        <v>1984</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>438</v>
-      </c>
-      <c r="B37" t="s">
-        <v>77</v>
-      </c>
-      <c r="C37" t="s">
-        <v>78</v>
-      </c>
-      <c r="D37">
-        <v>28.1</v>
-      </c>
-      <c r="E37">
-        <v>84.233333333333334</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -7283,281 +7285,281 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38">
-        <v>439.3</v>
+        <v>406.4</v>
       </c>
       <c r="B38" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="C38" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="D38">
-        <v>28.286666666666665</v>
+        <v>28.516666666666666</v>
       </c>
       <c r="E38">
-        <v>84.357500000000002</v>
+        <v>83.95</v>
       </c>
       <c r="F38">
         <v>0</v>
       </c>
-      <c r="G38" t="s">
-        <v>2</v>
-      </c>
-      <c r="H38">
+      <c r="G38" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H38" s="2">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>406.5</v>
+      </c>
+      <c r="B39" t="s">
+        <v>64</v>
+      </c>
+      <c r="C39" t="s">
+        <v>66</v>
+      </c>
+      <c r="D39">
+        <v>28.254166666666666</v>
+      </c>
+      <c r="E39">
+        <v>83.724166666666662</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39" t="s">
+        <v>15</v>
+      </c>
+      <c r="H39">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>410</v>
+      </c>
+      <c r="B40" t="s">
+        <v>67</v>
+      </c>
+      <c r="C40" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40">
+        <v>28.003888888888888</v>
+      </c>
+      <c r="E40">
+        <v>83.608611111111117</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40" t="s">
+        <v>2</v>
+      </c>
+      <c r="H40">
         <v>1995</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="9">
-        <v>439.35</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="D39" s="9">
-        <v>28.203611111111112</v>
-      </c>
-      <c r="E39" s="9">
-        <v>84.403055555555554</v>
-      </c>
-      <c r="F39" s="9">
-        <v>0</v>
-      </c>
-      <c r="G39" s="9" t="s">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>415</v>
+      </c>
+      <c r="B41" t="s">
+        <v>69</v>
+      </c>
+      <c r="C41" t="s">
+        <v>70</v>
+      </c>
+      <c r="D41">
+        <v>27.974444444444444</v>
+      </c>
+      <c r="E41">
+        <v>83.599444444444444</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H41" s="4">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A42" s="6">
+        <v>415.1</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D42" s="6">
+        <v>27.974166666666665</v>
+      </c>
+      <c r="E42" s="6">
+        <v>83.573888888888888</v>
+      </c>
+      <c r="F42" s="6">
+        <v>0</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H42" s="6">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>419.1</v>
+      </c>
+      <c r="B43" t="s">
+        <v>72</v>
+      </c>
+      <c r="C43" t="s">
+        <v>73</v>
+      </c>
+      <c r="D43">
+        <v>27.884722222222223</v>
+      </c>
+      <c r="E43">
+        <v>83.795000000000002</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H39" s="9">
+      <c r="H43" s="4">
         <v>2015</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>439.7</v>
-      </c>
-      <c r="B40" t="s">
-        <v>95</v>
-      </c>
-      <c r="C40" t="s">
-        <v>97</v>
-      </c>
-      <c r="D40">
-        <v>27.95</v>
-      </c>
-      <c r="E40">
-        <v>84.43</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="G40" t="s">
-        <v>17</v>
-      </c>
-      <c r="H40">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>420</v>
+      </c>
+      <c r="B44" t="s">
+        <v>67</v>
+      </c>
+      <c r="C44" t="s">
+        <v>68</v>
+      </c>
+      <c r="D44">
+        <v>27.75</v>
+      </c>
+      <c r="E44">
+        <v>84.347222222222229</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44" t="s">
+        <v>2</v>
+      </c>
+      <c r="H44">
         <v>2015</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>439.8</v>
-      </c>
-      <c r="B41" t="s">
-        <v>95</v>
-      </c>
-      <c r="C41" t="s">
-        <v>98</v>
-      </c>
-      <c r="D41">
-        <v>27.926388888888887</v>
-      </c>
-      <c r="E41">
-        <v>84.495000000000005</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="G41" t="s">
-        <v>2</v>
-      </c>
-      <c r="H41">
-        <v>1986</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>440</v>
-      </c>
-      <c r="B42" t="s">
-        <v>99</v>
-      </c>
-      <c r="C42" t="s">
-        <v>100</v>
-      </c>
-      <c r="D42">
-        <v>28.061388888888889</v>
-      </c>
-      <c r="E42">
-        <v>84.489722222222227</v>
-      </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-      <c r="G42" t="s">
-        <v>2</v>
-      </c>
-      <c r="H42">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>446.1</v>
-      </c>
-      <c r="B43" t="s">
-        <v>102</v>
-      </c>
-      <c r="C43" t="s">
-        <v>103</v>
-      </c>
-      <c r="D43">
-        <v>28.216666666666665</v>
-      </c>
-      <c r="E43">
-        <v>85.61666666666666</v>
-      </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
-      <c r="G43" t="s">
-        <v>104</v>
-      </c>
-      <c r="H43">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>446.8</v>
-      </c>
-      <c r="B44" t="s">
-        <v>105</v>
-      </c>
-      <c r="C44" t="s">
-        <v>106</v>
-      </c>
-      <c r="D44">
-        <v>27.973611111111111</v>
-      </c>
-      <c r="E44">
-        <v>85.1875</v>
-      </c>
-      <c r="F44">
-        <v>0</v>
-      </c>
-      <c r="G44" t="s">
-        <v>15</v>
-      </c>
-      <c r="H44">
-        <v>1995</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45">
-        <v>449.91</v>
+        <v>428</v>
       </c>
       <c r="B45" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="C45" t="s">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="D45">
-        <v>27.835555555555555</v>
+        <v>28.300555555555555</v>
       </c>
       <c r="E45">
-        <v>84.553333333333327</v>
+        <v>83.918333333333337</v>
       </c>
       <c r="F45">
         <v>0</v>
       </c>
       <c r="G45" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="H45">
         <v>2015</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46">
-        <v>465</v>
+        <v>430</v>
       </c>
       <c r="B46" t="s">
-        <v>115</v>
+        <v>29</v>
       </c>
       <c r="C46" t="s">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="D46">
-        <v>27.543611111111112</v>
+        <v>28.233333333333334</v>
       </c>
       <c r="E46">
-        <v>84.817499999999995</v>
+        <v>84</v>
       </c>
       <c r="F46">
         <v>0</v>
       </c>
       <c r="G46" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="H46">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47">
-        <v>470</v>
+        <v>430.5</v>
       </c>
       <c r="B47" t="s">
-        <v>117</v>
+        <v>29</v>
       </c>
       <c r="C47" t="s">
-        <v>118</v>
+        <v>68</v>
       </c>
       <c r="D47">
-        <v>27.587222222222223</v>
+        <v>27.953333333333333</v>
       </c>
       <c r="E47">
-        <v>84.735277777777782</v>
+        <v>84.265000000000001</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G47" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H47">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48">
-        <v>505</v>
+        <v>438</v>
       </c>
       <c r="B48" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="C48" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="D48">
-        <v>27.780277777777776</v>
+        <v>28.1</v>
       </c>
       <c r="E48">
-        <v>85.426666666666662</v>
+        <v>84.233333333333334</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -7569,21 +7571,21 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49">
-        <v>530</v>
+        <v>439.3</v>
       </c>
       <c r="B49" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="C49" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="D49">
-        <v>27.709722222222222</v>
+        <v>28.286666666666665</v>
       </c>
       <c r="E49">
-        <v>85.352777777777774</v>
+        <v>84.357500000000002</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -7592,102 +7594,102 @@
         <v>2</v>
       </c>
       <c r="H49">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A50" s="6">
+        <v>439.35</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D50" s="6">
+        <v>28.203611111111112</v>
+      </c>
+      <c r="E50" s="6">
+        <v>84.403055555555554</v>
+      </c>
+      <c r="F50" s="6">
+        <v>0</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H50" s="6">
         <v>2015</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>550</v>
-      </c>
-      <c r="B50" t="s">
-        <v>122</v>
-      </c>
-      <c r="C50" t="s">
-        <v>123</v>
-      </c>
-      <c r="D50">
-        <v>27.661111111111111</v>
-      </c>
-      <c r="E50">
-        <v>85.297222222222217</v>
-      </c>
-      <c r="F50">
-        <v>0</v>
-      </c>
-      <c r="G50" t="s">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>439.7</v>
+      </c>
+      <c r="B51" t="s">
+        <v>95</v>
+      </c>
+      <c r="C51" t="s">
+        <v>97</v>
+      </c>
+      <c r="D51">
+        <v>27.95</v>
+      </c>
+      <c r="E51">
+        <v>84.43</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51" t="s">
         <v>17</v>
       </c>
-      <c r="H50">
-        <v>1980</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>565</v>
-      </c>
-      <c r="B51" t="s">
-        <v>125</v>
-      </c>
-      <c r="C51" t="s">
-        <v>126</v>
-      </c>
-      <c r="D51">
-        <v>27.60361111111111</v>
-      </c>
-      <c r="E51">
-        <v>85.160833333333329</v>
-      </c>
-      <c r="F51">
-        <v>0</v>
-      </c>
-      <c r="G51" t="s">
-        <v>2</v>
-      </c>
       <c r="H51">
-        <v>1978</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52">
-        <v>570</v>
+        <v>439.8</v>
       </c>
       <c r="B52" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="C52" t="s">
-        <v>127</v>
+        <v>98</v>
       </c>
       <c r="D52">
-        <v>27.586111111111112</v>
+        <v>27.926388888888887</v>
       </c>
       <c r="E52">
-        <v>85.158333333333331</v>
+        <v>84.495000000000005</v>
       </c>
       <c r="F52">
         <v>0</v>
       </c>
       <c r="G52" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="H52">
-        <v>1977</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53">
-        <v>590</v>
+        <v>440</v>
       </c>
       <c r="B53" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="C53" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="D53">
-        <v>27.139444444444443</v>
+        <v>28.061388888888889</v>
       </c>
       <c r="E53">
-        <v>85.489444444444445</v>
+        <v>84.489722222222227</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -7696,76 +7698,76 @@
         <v>2</v>
       </c>
       <c r="H53">
-        <v>1979</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54">
-        <v>600.1</v>
+        <v>445</v>
       </c>
       <c r="B54" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="C54" t="s">
-        <v>132</v>
+        <v>68</v>
       </c>
       <c r="D54">
-        <v>27.589166666666667</v>
+        <v>28.043611111111112</v>
       </c>
       <c r="E54">
-        <v>87.339444444444439</v>
+        <v>84.816388888888895</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G54" t="s">
         <v>2</v>
       </c>
       <c r="H54">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55">
-        <v>602</v>
+        <v>446.1</v>
       </c>
       <c r="B55" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="C55" t="s">
-        <v>134</v>
+        <v>103</v>
       </c>
       <c r="D55">
-        <v>27.31</v>
+        <v>28.216666666666665</v>
       </c>
       <c r="E55">
-        <v>87.212500000000006</v>
+        <v>85.61666666666666</v>
       </c>
       <c r="F55">
         <v>0</v>
       </c>
       <c r="G55" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="H55">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56">
-        <v>602.5</v>
+        <v>446.8</v>
       </c>
       <c r="B56" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="C56" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="D56">
-        <v>27.295833333333334</v>
+        <v>27.973611111111111</v>
       </c>
       <c r="E56">
-        <v>87.224999999999994</v>
+        <v>85.1875</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -7774,232 +7776,232 @@
         <v>15</v>
       </c>
       <c r="H56">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57">
-        <v>606</v>
+        <v>447</v>
       </c>
       <c r="B57" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="C57" t="s">
-        <v>138</v>
+        <v>108</v>
       </c>
       <c r="D57">
-        <v>26.928333333333335</v>
+        <v>27.968888888888888</v>
       </c>
       <c r="E57">
-        <v>87.154444444444451</v>
+        <v>85.183333333333337</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G57" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="H57">
         <v>2015</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58">
-        <v>620</v>
+        <v>448</v>
       </c>
       <c r="B58" t="s">
-        <v>141</v>
+        <v>109</v>
       </c>
       <c r="C58" t="s">
-        <v>142</v>
+        <v>110</v>
       </c>
       <c r="D58">
-        <v>27.805555555555557</v>
+        <v>27.859722222222221</v>
       </c>
       <c r="E58">
-        <v>85.769444444444446</v>
+        <v>85.138333333333335</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G58" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="H58">
         <v>2015</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59">
-        <v>627.5</v>
+        <v>449.91</v>
       </c>
       <c r="B59" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="C59" t="s">
-        <v>144</v>
+        <v>111</v>
       </c>
       <c r="D59">
-        <v>28.039166666666667</v>
+        <v>27.835555555555555</v>
       </c>
       <c r="E59">
-        <v>85.535277777777779</v>
+        <v>84.553333333333327</v>
       </c>
       <c r="F59">
         <v>0</v>
       </c>
       <c r="G59" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="H59">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60">
-        <v>629.1</v>
+        <v>450</v>
       </c>
       <c r="B60" t="s">
-        <v>145</v>
+        <v>112</v>
       </c>
       <c r="C60" t="s">
-        <v>146</v>
+        <v>113</v>
       </c>
       <c r="D60">
-        <v>27.638888888888889</v>
+        <v>27.708333333333332</v>
       </c>
       <c r="E60">
-        <v>85.708333333333329</v>
+        <v>84.430555555555557</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G60" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="H60">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61">
-        <v>640</v>
+        <v>460</v>
       </c>
       <c r="B61" t="s">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="C61" t="s">
-        <v>150</v>
+        <v>114</v>
       </c>
       <c r="D61">
-        <v>27.580555555555556</v>
+        <v>27.447222222222223</v>
       </c>
       <c r="E61">
-        <v>85.513888888888886</v>
+        <v>84.973888888888894</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G61" t="s">
         <v>2</v>
       </c>
       <c r="H61">
-        <v>1987</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62">
-        <v>650</v>
+        <v>465</v>
       </c>
       <c r="B62" t="s">
-        <v>153</v>
+        <v>115</v>
       </c>
       <c r="C62" t="s">
-        <v>154</v>
+        <v>116</v>
       </c>
       <c r="D62">
-        <v>27.574999999999999</v>
+        <v>27.543611111111112</v>
       </c>
       <c r="E62">
-        <v>86.197222222222223</v>
+        <v>84.817499999999995</v>
       </c>
       <c r="F62">
         <v>0</v>
       </c>
       <c r="G62" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="H62">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63">
-        <v>652</v>
+        <v>470</v>
       </c>
       <c r="B63" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c r="C63" t="s">
-        <v>155</v>
+        <v>118</v>
       </c>
       <c r="D63">
-        <v>27.336388888888887</v>
+        <v>27.587222222222223</v>
       </c>
       <c r="E63">
-        <v>86.000277777777782</v>
+        <v>84.735277777777782</v>
       </c>
       <c r="F63">
         <v>0</v>
       </c>
       <c r="G63" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="H63">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>505</v>
+      </c>
+      <c r="B64" t="s">
+        <v>119</v>
+      </c>
+      <c r="C64" t="s">
+        <v>120</v>
+      </c>
+      <c r="D64">
+        <v>27.780277777777776</v>
+      </c>
+      <c r="E64">
+        <v>85.426666666666662</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64" t="s">
+        <v>2</v>
+      </c>
+      <c r="H64">
         <v>2015</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>660</v>
-      </c>
-      <c r="B64" t="s">
-        <v>156</v>
-      </c>
-      <c r="C64" t="s">
-        <v>157</v>
-      </c>
-      <c r="D64">
-        <v>27.336111111111112</v>
-      </c>
-      <c r="E64">
-        <v>86.219444444444449</v>
-      </c>
-      <c r="F64">
-        <v>0</v>
-      </c>
-      <c r="G64" t="s">
-        <v>17</v>
-      </c>
-      <c r="H64">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65">
-        <v>668.4</v>
+        <v>530</v>
       </c>
       <c r="B65" t="s">
-        <v>158</v>
+        <v>119</v>
       </c>
       <c r="C65" t="s">
-        <v>159</v>
+        <v>121</v>
       </c>
       <c r="D65">
-        <v>27.562777777777779</v>
+        <v>27.709722222222222</v>
       </c>
       <c r="E65">
-        <v>86.557777777777773</v>
+        <v>85.352777777777774</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -8008,24 +8010,24 @@
         <v>2</v>
       </c>
       <c r="H65">
-        <v>1991</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66">
-        <v>680</v>
+        <v>550</v>
       </c>
       <c r="B66" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="C66" t="s">
-        <v>162</v>
+        <v>123</v>
       </c>
       <c r="D66">
-        <v>26.874444444444446</v>
+        <v>27.661111111111111</v>
       </c>
       <c r="E66">
-        <v>86.819444444444443</v>
+        <v>85.297222222222217</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -8034,128 +8036,128 @@
         <v>17</v>
       </c>
       <c r="H66">
-        <v>1985</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67">
-        <v>681</v>
+        <v>550.04999999999995</v>
       </c>
       <c r="B67" t="s">
-        <v>147</v>
+        <v>119</v>
       </c>
       <c r="C67" t="s">
-        <v>163</v>
+        <v>124</v>
       </c>
       <c r="D67">
-        <v>26.920833333333334</v>
+        <v>27.628888888888888</v>
       </c>
       <c r="E67">
-        <v>87.145833333333329</v>
+        <v>85.294722222222219</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G67" t="s">
         <v>2</v>
       </c>
       <c r="H67">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>565</v>
+      </c>
+      <c r="B68" t="s">
+        <v>125</v>
+      </c>
+      <c r="C68" t="s">
+        <v>126</v>
+      </c>
+      <c r="D68">
+        <v>27.60361111111111</v>
+      </c>
+      <c r="E68">
+        <v>85.160833333333329</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68" t="s">
+        <v>2</v>
+      </c>
+      <c r="H68">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <v>570</v>
+      </c>
+      <c r="B69" t="s">
+        <v>125</v>
+      </c>
+      <c r="C69" t="s">
+        <v>127</v>
+      </c>
+      <c r="D69">
+        <v>27.586111111111112</v>
+      </c>
+      <c r="E69">
+        <v>85.158333333333331</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69" t="s">
+        <v>17</v>
+      </c>
+      <c r="H69">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <v>581</v>
+      </c>
+      <c r="B70" t="s">
+        <v>119</v>
+      </c>
+      <c r="C70" t="s">
+        <v>128</v>
+      </c>
+      <c r="D70">
+        <v>27.361944444444443</v>
+      </c>
+      <c r="E70">
+        <v>85.469444444444449</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70" t="s">
+        <v>15</v>
+      </c>
+      <c r="H70">
         <v>2006</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>684</v>
-      </c>
-      <c r="B68" t="s">
-        <v>164</v>
-      </c>
-      <c r="C68" t="s">
-        <v>165</v>
-      </c>
-      <c r="D68">
-        <v>27.158333333333335</v>
-      </c>
-      <c r="E68">
-        <v>87.712500000000006</v>
-      </c>
-      <c r="F68">
-        <v>0</v>
-      </c>
-      <c r="G68" t="s">
-        <v>2</v>
-      </c>
-      <c r="H68">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>728</v>
-      </c>
-      <c r="B69" t="s">
-        <v>169</v>
-      </c>
-      <c r="C69" t="s">
-        <v>170</v>
-      </c>
-      <c r="D69">
-        <v>26.879166666666666</v>
-      </c>
-      <c r="E69">
-        <v>87.92916666666666</v>
-      </c>
-      <c r="F69">
-        <v>0</v>
-      </c>
-      <c r="G69" t="s">
-        <v>15</v>
-      </c>
-      <c r="H69">
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>795</v>
-      </c>
-      <c r="B70" t="s">
-        <v>171</v>
-      </c>
-      <c r="C70" t="s">
-        <v>172</v>
-      </c>
-      <c r="D70">
-        <v>26.686666666666667</v>
-      </c>
-      <c r="E70">
-        <v>87.878888888888895</v>
-      </c>
-      <c r="F70">
-        <v>0</v>
-      </c>
-      <c r="G70" t="s">
-        <v>2</v>
-      </c>
-      <c r="H70">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71">
-        <v>120</v>
+        <v>589</v>
       </c>
       <c r="B71" t="s">
-        <v>3</v>
+        <v>119</v>
       </c>
       <c r="C71" t="s">
-        <v>4</v>
+        <v>129</v>
       </c>
       <c r="D71">
-        <v>29.672222222222221</v>
+        <v>27.151666666666667</v>
       </c>
       <c r="E71">
-        <v>80.558333333333337</v>
+        <v>85.49166666666666</v>
       </c>
       <c r="F71">
         <v>1</v>
@@ -8164,105 +8166,105 @@
         <v>2</v>
       </c>
       <c r="H71">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72">
-        <v>240</v>
+        <v>590</v>
       </c>
       <c r="B72" t="s">
-        <v>9</v>
+        <v>119</v>
       </c>
       <c r="C72" t="s">
-        <v>16</v>
+        <v>130</v>
       </c>
       <c r="D72">
-        <v>28.952777777777779</v>
+        <v>27.139444444444443</v>
       </c>
       <c r="E72">
-        <v>81.441666666666663</v>
+        <v>85.489444444444445</v>
       </c>
       <c r="F72">
-        <v>1</v>
-      </c>
-      <c r="G72" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H72" s="5">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="G72" t="s">
+        <v>2</v>
+      </c>
+      <c r="H72">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73">
-        <v>269.5</v>
+        <v>600.1</v>
       </c>
       <c r="B73" t="s">
-        <v>33</v>
+        <v>131</v>
       </c>
       <c r="C73" t="s">
-        <v>34</v>
+        <v>132</v>
       </c>
       <c r="D73">
-        <v>28.517222222222223</v>
+        <v>27.589166666666667</v>
       </c>
       <c r="E73">
-        <v>81.656944444444449</v>
+        <v>87.339444444444439</v>
       </c>
       <c r="F73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G73" t="s">
         <v>2</v>
       </c>
       <c r="H73">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74">
-        <v>280</v>
+        <v>602</v>
       </c>
       <c r="B74" t="s">
-        <v>9</v>
+        <v>133</v>
       </c>
       <c r="C74" t="s">
-        <v>36</v>
+        <v>134</v>
       </c>
       <c r="D74">
-        <v>28.644444444444446</v>
+        <v>27.31</v>
       </c>
       <c r="E74">
-        <v>81.291666666666671</v>
+        <v>87.212500000000006</v>
       </c>
       <c r="F74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G74" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="H74">
         <v>2015</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A75">
-        <v>330</v>
+        <v>602.5</v>
       </c>
       <c r="B75" t="s">
-        <v>44</v>
+        <v>135</v>
       </c>
       <c r="C75" t="s">
-        <v>45</v>
+        <v>136</v>
       </c>
       <c r="D75">
-        <v>28.072222222222223</v>
+        <v>27.295833333333334</v>
       </c>
       <c r="E75">
-        <v>82.8</v>
+        <v>87.224999999999994</v>
       </c>
       <c r="F75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G75" t="s">
         <v>15</v>
@@ -8271,50 +8273,50 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A76">
-        <v>360</v>
+        <v>604.5</v>
       </c>
       <c r="B76" t="s">
-        <v>50</v>
+        <v>131</v>
       </c>
       <c r="C76" t="s">
-        <v>52</v>
+        <v>137</v>
       </c>
       <c r="D76">
-        <v>27.947222222222223</v>
+        <v>27.333333333333332</v>
       </c>
       <c r="E76">
-        <v>82.224999999999994</v>
+        <v>87.191666666666663</v>
       </c>
       <c r="F76">
         <v>1</v>
       </c>
       <c r="G76" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="H76">
         <v>2006</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77">
-        <v>375</v>
+        <v>606</v>
       </c>
       <c r="B77" t="s">
-        <v>50</v>
+        <v>131</v>
       </c>
       <c r="C77" t="s">
-        <v>57</v>
+        <v>138</v>
       </c>
       <c r="D77">
-        <v>28.000555555555554</v>
+        <v>26.928333333333335</v>
       </c>
       <c r="E77">
-        <v>82.11611111111111</v>
+        <v>87.154444444444451</v>
       </c>
       <c r="F77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G77" t="s">
         <v>2</v>
@@ -8323,50 +8325,50 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78">
-        <v>419.1</v>
+        <v>610</v>
       </c>
       <c r="B78" t="s">
-        <v>72</v>
+        <v>139</v>
       </c>
       <c r="C78" t="s">
-        <v>73</v>
+        <v>140</v>
       </c>
       <c r="D78">
-        <v>27.884722222222223</v>
+        <v>27.788333333333334</v>
       </c>
       <c r="E78">
-        <v>83.795000000000002</v>
+        <v>85.898611111111109</v>
       </c>
       <c r="F78">
         <v>1</v>
       </c>
-      <c r="G78" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H78" s="7">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G78" t="s">
+        <v>2</v>
+      </c>
+      <c r="H78">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A79">
-        <v>420</v>
+        <v>620</v>
       </c>
       <c r="B79" t="s">
-        <v>67</v>
+        <v>141</v>
       </c>
       <c r="C79" t="s">
-        <v>68</v>
+        <v>142</v>
       </c>
       <c r="D79">
-        <v>27.75</v>
+        <v>27.805555555555557</v>
       </c>
       <c r="E79">
-        <v>84.347222222222229</v>
+        <v>85.769444444444446</v>
       </c>
       <c r="F79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G79" t="s">
         <v>2</v>
@@ -8375,255 +8377,255 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A80">
-        <v>430.5</v>
+        <v>627.5</v>
       </c>
       <c r="B80" t="s">
-        <v>29</v>
+        <v>143</v>
       </c>
       <c r="C80" t="s">
-        <v>68</v>
+        <v>144</v>
       </c>
       <c r="D80">
-        <v>27.953333333333333</v>
+        <v>28.039166666666667</v>
       </c>
       <c r="E80">
-        <v>84.265000000000001</v>
+        <v>85.535277777777779</v>
       </c>
       <c r="F80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G80" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="H80">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81">
-        <v>445</v>
+        <v>629.1</v>
       </c>
       <c r="B81" t="s">
-        <v>101</v>
+        <v>145</v>
       </c>
       <c r="C81" t="s">
-        <v>68</v>
+        <v>146</v>
       </c>
       <c r="D81">
-        <v>28.043611111111112</v>
+        <v>27.638888888888889</v>
       </c>
       <c r="E81">
-        <v>84.816388888888895</v>
+        <v>85.708333333333329</v>
       </c>
       <c r="F81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G81" t="s">
         <v>2</v>
       </c>
       <c r="H81">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82">
-        <v>447</v>
+        <v>630</v>
       </c>
       <c r="B82" t="s">
-        <v>107</v>
+        <v>147</v>
       </c>
       <c r="C82" t="s">
-        <v>108</v>
+        <v>148</v>
       </c>
       <c r="D82">
-        <v>27.968888888888888</v>
+        <v>27.558333333333334</v>
       </c>
       <c r="E82">
-        <v>85.183333333333337</v>
+        <v>85.75277777777778</v>
       </c>
       <c r="F82">
         <v>1</v>
       </c>
       <c r="G82" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="H82">
         <v>2015</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A83">
-        <v>448</v>
+        <v>640</v>
       </c>
       <c r="B83" t="s">
-        <v>109</v>
+        <v>149</v>
       </c>
       <c r="C83" t="s">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="D83">
-        <v>27.859722222222221</v>
+        <v>27.580555555555556</v>
       </c>
       <c r="E83">
-        <v>85.138333333333335</v>
+        <v>85.513888888888886</v>
       </c>
       <c r="F83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G83" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="H83">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A84">
-        <v>450</v>
+        <v>647</v>
       </c>
       <c r="B84" t="s">
-        <v>112</v>
+        <v>151</v>
       </c>
       <c r="C84" t="s">
-        <v>113</v>
+        <v>152</v>
       </c>
       <c r="D84">
-        <v>27.708333333333332</v>
+        <v>27.634722222222223</v>
       </c>
       <c r="E84">
-        <v>84.430555555555557</v>
+        <v>86.086666666666673</v>
       </c>
       <c r="F84">
         <v>1</v>
       </c>
       <c r="G84" t="s">
+        <v>2</v>
+      </c>
+      <c r="H84">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A85">
+        <v>650</v>
+      </c>
+      <c r="B85" t="s">
+        <v>153</v>
+      </c>
+      <c r="C85" t="s">
+        <v>154</v>
+      </c>
+      <c r="D85">
+        <v>27.574999999999999</v>
+      </c>
+      <c r="E85">
+        <v>86.197222222222223</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85" t="s">
+        <v>2</v>
+      </c>
+      <c r="H85">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A86">
+        <v>652</v>
+      </c>
+      <c r="B86" t="s">
+        <v>147</v>
+      </c>
+      <c r="C86" t="s">
+        <v>155</v>
+      </c>
+      <c r="D86">
+        <v>27.336388888888887</v>
+      </c>
+      <c r="E86">
+        <v>86.000277777777782</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86" t="s">
+        <v>2</v>
+      </c>
+      <c r="H86">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A87">
+        <v>660</v>
+      </c>
+      <c r="B87" t="s">
+        <v>156</v>
+      </c>
+      <c r="C87" t="s">
+        <v>157</v>
+      </c>
+      <c r="D87">
+        <v>27.336111111111112</v>
+      </c>
+      <c r="E87">
+        <v>86.219444444444449</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87" t="s">
         <v>17</v>
-      </c>
-      <c r="H84">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>460</v>
-      </c>
-      <c r="B85" t="s">
-        <v>50</v>
-      </c>
-      <c r="C85" t="s">
-        <v>114</v>
-      </c>
-      <c r="D85">
-        <v>27.447222222222223</v>
-      </c>
-      <c r="E85">
-        <v>84.973888888888894</v>
-      </c>
-      <c r="F85">
-        <v>1</v>
-      </c>
-      <c r="G85" t="s">
-        <v>2</v>
-      </c>
-      <c r="H85">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <v>550.04999999999995</v>
-      </c>
-      <c r="B86" t="s">
-        <v>119</v>
-      </c>
-      <c r="C86" t="s">
-        <v>124</v>
-      </c>
-      <c r="D86">
-        <v>27.628888888888888</v>
-      </c>
-      <c r="E86">
-        <v>85.294722222222219</v>
-      </c>
-      <c r="F86">
-        <v>1</v>
-      </c>
-      <c r="G86" t="s">
-        <v>2</v>
-      </c>
-      <c r="H86">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <v>581</v>
-      </c>
-      <c r="B87" t="s">
-        <v>119</v>
-      </c>
-      <c r="C87" t="s">
-        <v>128</v>
-      </c>
-      <c r="D87">
-        <v>27.361944444444443</v>
-      </c>
-      <c r="E87">
-        <v>85.469444444444449</v>
-      </c>
-      <c r="F87">
-        <v>1</v>
-      </c>
-      <c r="G87" t="s">
-        <v>15</v>
       </c>
       <c r="H87">
         <v>2006</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A88">
-        <v>589</v>
+        <v>668.4</v>
       </c>
       <c r="B88" t="s">
-        <v>119</v>
+        <v>158</v>
       </c>
       <c r="C88" t="s">
-        <v>129</v>
+        <v>159</v>
       </c>
       <c r="D88">
-        <v>27.151666666666667</v>
+        <v>27.562777777777779</v>
       </c>
       <c r="E88">
-        <v>85.49166666666666</v>
+        <v>86.557777777777773</v>
       </c>
       <c r="F88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G88" t="s">
         <v>2</v>
       </c>
       <c r="H88">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A89">
-        <v>604.5</v>
+        <v>670</v>
       </c>
       <c r="B89" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="C89" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
       <c r="D89">
-        <v>27.333333333333332</v>
+        <v>27.270555555555557</v>
       </c>
       <c r="E89">
-        <v>87.191666666666663</v>
+        <v>86.667222222222222</v>
       </c>
       <c r="F89">
         <v>1</v>
@@ -8635,76 +8637,76 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A90">
-        <v>610</v>
+        <v>680</v>
       </c>
       <c r="B90" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="C90" t="s">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="D90">
-        <v>27.788333333333334</v>
+        <v>26.874444444444446</v>
       </c>
       <c r="E90">
-        <v>85.898611111111109</v>
+        <v>86.819444444444443</v>
       </c>
       <c r="F90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G90" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="H90">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A91">
-        <v>630</v>
+        <v>681</v>
       </c>
       <c r="B91" t="s">
         <v>147</v>
       </c>
       <c r="C91" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="D91">
-        <v>27.558333333333334</v>
+        <v>26.920833333333334</v>
       </c>
       <c r="E91">
-        <v>85.75277777777778</v>
+        <v>87.145833333333329</v>
       </c>
       <c r="F91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G91" t="s">
         <v>2</v>
       </c>
       <c r="H91">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A92">
-        <v>647</v>
+        <v>684</v>
       </c>
       <c r="B92" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="C92" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="D92">
-        <v>27.634722222222223</v>
+        <v>27.158333333333335</v>
       </c>
       <c r="E92">
-        <v>86.086666666666673</v>
+        <v>87.712500000000006</v>
       </c>
       <c r="F92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G92" t="s">
         <v>2</v>
@@ -8713,108 +8715,108 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A93">
-        <v>670</v>
+        <v>690</v>
       </c>
       <c r="B93" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C93" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="D93">
-        <v>27.270555555555557</v>
+        <v>26.930555555555557</v>
       </c>
       <c r="E93">
-        <v>86.667222222222222</v>
+        <v>87.329166666666666</v>
       </c>
       <c r="F93">
         <v>1</v>
       </c>
       <c r="G93" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H93">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A94">
-        <v>690</v>
+        <v>695</v>
       </c>
       <c r="B94" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C94" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D94">
-        <v>26.930555555555557</v>
+        <v>26.866666666666667</v>
       </c>
       <c r="E94">
-        <v>87.329166666666666</v>
+        <v>87.158333333333331</v>
       </c>
       <c r="F94">
         <v>1</v>
       </c>
       <c r="G94" t="s">
+        <v>2</v>
+      </c>
+      <c r="H94">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A95">
+        <v>728</v>
+      </c>
+      <c r="B95" t="s">
+        <v>169</v>
+      </c>
+      <c r="C95" t="s">
+        <v>170</v>
+      </c>
+      <c r="D95">
+        <v>26.879166666666666</v>
+      </c>
+      <c r="E95">
+        <v>87.92916666666666</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95" t="s">
         <v>15</v>
       </c>
-      <c r="H94">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95">
-        <v>695</v>
-      </c>
-      <c r="B95" t="s">
-        <v>167</v>
-      </c>
-      <c r="C95" t="s">
-        <v>168</v>
-      </c>
-      <c r="D95">
-        <v>26.866666666666667</v>
-      </c>
-      <c r="E95">
-        <v>87.158333333333331</v>
-      </c>
-      <c r="F95">
-        <v>1</v>
-      </c>
-      <c r="G95" t="s">
-        <v>2</v>
-      </c>
       <c r="H95">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="2">
-        <v>259.5</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="D96" s="3">
-        <v>29.238199999999999</v>
-      </c>
-      <c r="E96" s="3">
-        <v>80.959289999999996</v>
-      </c>
-      <c r="F96" s="4">
-        <v>1</v>
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A96" s="8">
+        <v>795</v>
+      </c>
+      <c r="B96" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="C96" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D96" s="9">
+        <v>26.686666666666667</v>
+      </c>
+      <c r="E96" s="9">
+        <v>87.878888888888895</v>
+      </c>
+      <c r="F96" s="10">
+        <v>0</v>
       </c>
       <c r="G96" t="s">
         <v>2</v>
       </c>
       <c r="H96">
-        <v>2015</v>
+        <v>2011</v>
       </c>
     </row>
   </sheetData>
